--- a/scripts/summer_school_corpus_info_new.xlsx
+++ b/scripts/summer_school_corpus_info_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grig\scibo_swissness\training school high mountains\TS_coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliagrisot/Documents/GitHub/zurich-sommerschule22.github.io/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A3105-712A-4C16-B5B1-EADBF6853745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D5BF7D-D431-0649-A3BD-2B15E5B7CDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="668">
   <si>
     <t>author</t>
   </si>
@@ -2384,28 +2384,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="B189" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>424</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>539</v>
       </c>
@@ -2451,7 +2447,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>551</v>
       </c>
@@ -2474,7 +2470,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>546</v>
       </c>
@@ -2497,7 +2493,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>516</v>
       </c>
@@ -2520,7 +2516,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>475</v>
       </c>
@@ -2543,7 +2539,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>438</v>
       </c>
@@ -2566,7 +2562,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>555</v>
       </c>
@@ -2589,7 +2585,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>489</v>
       </c>
@@ -2612,7 +2608,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>495</v>
       </c>
@@ -2635,7 +2631,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>501</v>
       </c>
@@ -2658,7 +2654,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>520</v>
       </c>
@@ -2681,7 +2677,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>464</v>
       </c>
@@ -2704,7 +2700,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>466</v>
       </c>
@@ -2727,7 +2723,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>437</v>
       </c>
@@ -2750,7 +2746,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>536</v>
       </c>
@@ -2773,7 +2769,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>521</v>
       </c>
@@ -2796,7 +2792,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>545</v>
       </c>
@@ -2819,7 +2815,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>445</v>
       </c>
@@ -2842,7 +2838,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>504</v>
       </c>
@@ -2865,7 +2861,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>447</v>
       </c>
@@ -2888,7 +2884,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>453</v>
       </c>
@@ -2911,7 +2907,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -2934,7 +2930,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>534</v>
       </c>
@@ -2957,7 +2953,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>557</v>
       </c>
@@ -2980,7 +2976,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>537</v>
       </c>
@@ -3003,7 +2999,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>556</v>
       </c>
@@ -3026,7 +3022,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>493</v>
       </c>
@@ -3049,7 +3045,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>491</v>
       </c>
@@ -3072,7 +3068,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>433</v>
       </c>
@@ -3095,7 +3091,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>434</v>
       </c>
@@ -3118,7 +3114,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>507</v>
       </c>
@@ -3141,7 +3137,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>549</v>
       </c>
@@ -3164,7 +3160,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>425</v>
       </c>
@@ -3187,7 +3183,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>506</v>
       </c>
@@ -3210,7 +3206,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>483</v>
       </c>
@@ -3233,7 +3229,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>449</v>
       </c>
@@ -3256,7 +3252,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>526</v>
       </c>
@@ -3279,7 +3275,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>426</v>
       </c>
@@ -3302,7 +3298,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>468</v>
       </c>
@@ -3325,7 +3321,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>499</v>
       </c>
@@ -3348,7 +3344,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>478</v>
       </c>
@@ -3371,7 +3367,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>525</v>
       </c>
@@ -3394,7 +3390,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>470</v>
       </c>
@@ -3417,7 +3413,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>554</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>431</v>
       </c>
@@ -3463,7 +3459,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -3486,7 +3482,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>538</v>
       </c>
@@ -3509,7 +3505,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>533</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>509</v>
       </c>
@@ -3555,7 +3551,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>439</v>
       </c>
@@ -3578,7 +3574,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>529</v>
       </c>
@@ -3601,7 +3597,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>530</v>
       </c>
@@ -3624,7 +3620,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>456</v>
       </c>
@@ -3647,7 +3643,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>458</v>
       </c>
@@ -3670,7 +3666,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>544</v>
       </c>
@@ -3693,7 +3689,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>446</v>
       </c>
@@ -3716,7 +3712,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>531</v>
       </c>
@@ -3739,7 +3735,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>429</v>
       </c>
@@ -3762,7 +3758,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>450</v>
       </c>
@@ -3785,7 +3781,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>486</v>
       </c>
@@ -3808,7 +3804,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>528</v>
       </c>
@@ -3831,7 +3827,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>472</v>
       </c>
@@ -3854,7 +3850,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>442</v>
       </c>
@@ -3877,7 +3873,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>469</v>
       </c>
@@ -3900,7 +3896,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>451</v>
       </c>
@@ -3923,7 +3919,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>440</v>
       </c>
@@ -3946,7 +3942,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>441</v>
       </c>
@@ -3969,7 +3965,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>444</v>
       </c>
@@ -3992,7 +3988,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>435</v>
       </c>
@@ -4015,7 +4011,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>462</v>
       </c>
@@ -4038,7 +4034,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>541</v>
       </c>
@@ -4061,7 +4057,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>540</v>
       </c>
@@ -4084,7 +4080,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>481</v>
       </c>
@@ -4107,7 +4103,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>448</v>
       </c>
@@ -4130,7 +4126,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>482</v>
       </c>
@@ -4153,7 +4149,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>460</v>
       </c>
@@ -4176,7 +4172,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>487</v>
       </c>
@@ -4199,7 +4195,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>427</v>
       </c>
@@ -4222,7 +4218,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>455</v>
       </c>
@@ -4245,7 +4241,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>477</v>
       </c>
@@ -4268,7 +4264,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>471</v>
       </c>
@@ -4290,14 +4286,8 @@
       <c r="G82" t="s">
         <v>422</v>
       </c>
-      <c r="L82" t="s">
-        <v>422</v>
-      </c>
-      <c r="M82">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>510</v>
       </c>
@@ -4320,7 +4310,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>522</v>
       </c>
@@ -4343,7 +4333,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>500</v>
       </c>
@@ -4366,7 +4356,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>553</v>
       </c>
@@ -4389,7 +4379,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>503</v>
       </c>
@@ -4412,7 +4402,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>519</v>
       </c>
@@ -4435,7 +4425,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>515</v>
       </c>
@@ -4458,7 +4448,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>513</v>
       </c>
@@ -4481,7 +4471,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>518</v>
       </c>
@@ -4504,7 +4494,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>512</v>
       </c>
@@ -4527,7 +4517,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>559</v>
       </c>
@@ -4550,7 +4540,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>543</v>
       </c>
@@ -4573,7 +4563,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>430</v>
       </c>
@@ -4596,7 +4586,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>496</v>
       </c>
@@ -4619,7 +4609,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>428</v>
       </c>
@@ -4642,7 +4632,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>524</v>
       </c>
@@ -4665,7 +4655,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>454</v>
       </c>
@@ -4688,7 +4678,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>479</v>
       </c>
@@ -4711,7 +4701,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>485</v>
       </c>
@@ -4734,7 +4724,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>517</v>
       </c>
@@ -4757,7 +4747,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>432</v>
       </c>
@@ -4780,7 +4770,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>480</v>
       </c>
@@ -4803,7 +4793,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>443</v>
       </c>
@@ -4826,7 +4816,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>542</v>
       </c>
@@ -4849,7 +4839,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>498</v>
       </c>
@@ -4872,7 +4862,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>494</v>
       </c>
@@ -4895,7 +4885,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>474</v>
       </c>
@@ -4918,7 +4908,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>497</v>
       </c>
@@ -4941,7 +4931,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>459</v>
       </c>
@@ -4964,7 +4954,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>535</v>
       </c>
@@ -4987,7 +4977,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>532</v>
       </c>
@@ -5010,7 +5000,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>488</v>
       </c>
@@ -5033,7 +5023,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>598</v>
       </c>
@@ -5056,7 +5046,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>575</v>
       </c>
@@ -5079,7 +5069,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>568</v>
       </c>
@@ -5102,7 +5092,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>629</v>
       </c>
@@ -5125,7 +5115,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>583</v>
       </c>
@@ -5148,7 +5138,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>584</v>
       </c>
@@ -5171,7 +5161,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>569</v>
       </c>
@@ -5194,7 +5184,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>599</v>
       </c>
@@ -5217,7 +5207,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>611</v>
       </c>
@@ -5240,7 +5230,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>616</v>
       </c>
@@ -5263,7 +5253,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>609</v>
       </c>
@@ -5286,7 +5276,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>627</v>
       </c>
@@ -5309,7 +5299,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>631</v>
       </c>
@@ -5332,7 +5322,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>630</v>
       </c>
@@ -5355,7 +5345,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>625</v>
       </c>
@@ -5378,7 +5368,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>561</v>
       </c>
@@ -5401,7 +5391,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>626</v>
       </c>
@@ -5424,7 +5414,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>651</v>
       </c>
@@ -5447,7 +5437,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>641</v>
       </c>
@@ -5470,7 +5460,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>639</v>
       </c>
@@ -5493,7 +5483,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>570</v>
       </c>
@@ -5516,7 +5506,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>628</v>
       </c>
@@ -5539,7 +5529,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>562</v>
       </c>
@@ -5562,7 +5552,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>590</v>
       </c>
@@ -5585,7 +5575,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>648</v>
       </c>
@@ -5608,7 +5598,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>615</v>
       </c>
@@ -5631,7 +5621,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>638</v>
       </c>
@@ -5654,7 +5644,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>614</v>
       </c>
@@ -5677,7 +5667,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>645</v>
       </c>
@@ -5700,7 +5690,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>574</v>
       </c>
@@ -5723,7 +5713,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>621</v>
       </c>
@@ -5746,7 +5736,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>589</v>
       </c>
@@ -5769,7 +5759,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>632</v>
       </c>
@@ -5792,7 +5782,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>624</v>
       </c>
@@ -5815,7 +5805,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>597</v>
       </c>
@@ -5838,7 +5828,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>600</v>
       </c>
@@ -5861,7 +5851,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>643</v>
       </c>
@@ -5884,7 +5874,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>606</v>
       </c>
@@ -5907,7 +5897,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>594</v>
       </c>
@@ -5930,7 +5920,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>640</v>
       </c>
@@ -5953,7 +5943,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>585</v>
       </c>
@@ -5976,7 +5966,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>605</v>
       </c>
@@ -5999,7 +5989,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>592</v>
       </c>
@@ -6022,7 +6012,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>642</v>
       </c>
@@ -6045,7 +6035,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>571</v>
       </c>
@@ -6068,7 +6058,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>634</v>
       </c>
@@ -6091,7 +6081,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>595</v>
       </c>
@@ -6114,7 +6104,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>607</v>
       </c>
@@ -6137,7 +6127,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>650</v>
       </c>
@@ -6160,7 +6150,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>633</v>
       </c>
@@ -6183,7 +6173,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>579</v>
       </c>
@@ -6206,7 +6196,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>588</v>
       </c>
@@ -6229,7 +6219,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>622</v>
       </c>
@@ -6252,7 +6242,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>613</v>
       </c>
@@ -6275,7 +6265,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>576</v>
       </c>
@@ -6298,7 +6288,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>577</v>
       </c>
@@ -6321,7 +6311,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>564</v>
       </c>
@@ -6344,7 +6334,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>644</v>
       </c>
@@ -6367,7 +6357,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>566</v>
       </c>
@@ -6390,7 +6380,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>581</v>
       </c>
@@ -6413,7 +6403,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>619</v>
       </c>
@@ -6436,7 +6426,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>602</v>
       </c>
@@ -6459,7 +6449,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>635</v>
       </c>
@@ -6482,7 +6472,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>580</v>
       </c>
@@ -6505,7 +6495,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>582</v>
       </c>
@@ -6528,7 +6518,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>601</v>
       </c>
@@ -6551,7 +6541,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>560</v>
       </c>
@@ -6574,7 +6564,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>587</v>
       </c>
@@ -6597,7 +6587,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>563</v>
       </c>
@@ -6620,7 +6610,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>620</v>
       </c>
@@ -6643,7 +6633,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>608</v>
       </c>
@@ -6666,7 +6656,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>647</v>
       </c>
@@ -6689,7 +6679,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>618</v>
       </c>
@@ -6712,7 +6702,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>596</v>
       </c>
@@ -6735,7 +6725,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>586</v>
       </c>
@@ -6758,7 +6748,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>578</v>
       </c>
@@ -6781,7 +6771,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>636</v>
       </c>
@@ -6804,7 +6794,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>591</v>
       </c>
@@ -6827,7 +6817,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>572</v>
       </c>
@@ -6850,7 +6840,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>565</v>
       </c>
@@ -6873,7 +6863,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>637</v>
       </c>
@@ -6896,7 +6886,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>617</v>
       </c>
@@ -6919,7 +6909,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>653</v>
       </c>
@@ -6942,7 +6932,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>603</v>
       </c>
@@ -6965,7 +6955,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>610</v>
       </c>
@@ -6988,7 +6978,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>604</v>
       </c>
@@ -7011,7 +7001,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>654</v>
       </c>
@@ -7034,7 +7024,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>652</v>
       </c>
@@ -7057,7 +7047,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>623</v>
       </c>
@@ -7080,7 +7070,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>646</v>
       </c>
@@ -7103,7 +7093,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>567</v>
       </c>
@@ -7126,7 +7116,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>567</v>
       </c>
@@ -7149,7 +7139,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>573</v>
       </c>
@@ -7172,7 +7162,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>612</v>
       </c>
@@ -7195,7 +7185,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>593</v>
       </c>
@@ -7218,7 +7208,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>649</v>
       </c>

--- a/scripts/summer_school_corpus_info_new.xlsx
+++ b/scripts/summer_school_corpus_info_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliagrisot/Documents/GitHub/zurich-sommerschule22.github.io/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D5BF7D-D431-0649-A3BD-2B15E5B7CDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5B215F-234F-1E48-9B9A-10E4B0384013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,9 +1018,6 @@
     <t>Bruno</t>
   </si>
   <si>
-    <t>Ernst Adolf</t>
-  </si>
-  <si>
     <t>Baerwart</t>
   </si>
   <si>
@@ -2024,6 +2021,9 @@
   </si>
   <si>
     <t>Bettina</t>
+  </si>
+  <si>
+    <t>Ernst</t>
   </si>
 </sst>
 </file>
@@ -2386,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B189" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView tabSelected="1" topLeftCell="B192" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2403,7 +2403,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
@@ -2441,18 +2441,18 @@
         <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" t="s">
         <v>551</v>
-      </c>
-      <c r="B3" t="s">
-        <v>552</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2464,18 +2464,18 @@
         <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" t="s">
         <v>546</v>
-      </c>
-      <c r="B4" t="s">
-        <v>547</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2487,15 +2487,15 @@
         <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s">
         <v>97</v>
@@ -2510,18 +2510,18 @@
         <v>283</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" t="s">
         <v>475</v>
-      </c>
-      <c r="B6" t="s">
-        <v>476</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2533,15 +2533,15 @@
         <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s">
         <v>98</v>
@@ -2556,15 +2556,15 @@
         <v>284</v>
       </c>
       <c r="F7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B8" t="s">
         <v>99</v>
@@ -2579,21 +2579,21 @@
         <v>284</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" t="s">
         <v>489</v>
       </c>
-      <c r="B9" t="s">
-        <v>490</v>
-      </c>
       <c r="C9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D9">
         <v>1906</v>
@@ -2602,15 +2602,15 @@
         <v>290</v>
       </c>
       <c r="F9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
         <v>100</v>
@@ -2625,18 +2625,18 @@
         <v>285</v>
       </c>
       <c r="F10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B11" t="s">
         <v>501</v>
-      </c>
-      <c r="B11" t="s">
-        <v>502</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2648,15 +2648,15 @@
         <v>286</v>
       </c>
       <c r="F11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
@@ -2671,18 +2671,18 @@
         <v>287</v>
       </c>
       <c r="F12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" t="s">
         <v>464</v>
-      </c>
-      <c r="B13" t="s">
-        <v>465</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -2694,18 +2694,18 @@
         <v>288</v>
       </c>
       <c r="F13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" t="s">
         <v>466</v>
-      </c>
-      <c r="B14" t="s">
-        <v>467</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -2717,15 +2717,15 @@
         <v>288</v>
       </c>
       <c r="F14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B15" t="s">
         <v>102</v>
@@ -2740,15 +2740,15 @@
         <v>289</v>
       </c>
       <c r="F15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
@@ -2763,15 +2763,15 @@
         <v>289</v>
       </c>
       <c r="F16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B17" t="s">
         <v>104</v>
@@ -2786,15 +2786,15 @@
         <v>289</v>
       </c>
       <c r="F17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B18" t="s">
         <v>105</v>
@@ -2809,15 +2809,15 @@
         <v>289</v>
       </c>
       <c r="F18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B19" t="s">
         <v>106</v>
@@ -2832,18 +2832,18 @@
         <v>289</v>
       </c>
       <c r="F19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B20" t="s">
         <v>504</v>
-      </c>
-      <c r="B20" t="s">
-        <v>505</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -2855,15 +2855,15 @@
         <v>289</v>
       </c>
       <c r="F20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -2878,15 +2878,15 @@
         <v>289</v>
       </c>
       <c r="F21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B22" t="s">
         <v>107</v>
@@ -2901,15 +2901,15 @@
         <v>289</v>
       </c>
       <c r="F22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B23" t="s">
         <v>109</v>
@@ -2924,15 +2924,15 @@
         <v>289</v>
       </c>
       <c r="F23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B24" t="s">
         <v>110</v>
@@ -2947,18 +2947,18 @@
         <v>289</v>
       </c>
       <c r="F24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>556</v>
+      </c>
+      <c r="B25" t="s">
         <v>557</v>
-      </c>
-      <c r="B25" t="s">
-        <v>558</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -2970,15 +2970,15 @@
         <v>289</v>
       </c>
       <c r="F25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B26" t="s">
         <v>111</v>
@@ -2993,15 +2993,15 @@
         <v>289</v>
       </c>
       <c r="F26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B27" t="s">
         <v>112</v>
@@ -3016,15 +3016,15 @@
         <v>289</v>
       </c>
       <c r="F27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B28" t="s">
         <v>113</v>
@@ -3039,38 +3039,38 @@
         <v>285</v>
       </c>
       <c r="F28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>490</v>
+      </c>
+      <c r="B29" t="s">
         <v>491</v>
       </c>
-      <c r="B29" t="s">
-        <v>492</v>
-      </c>
       <c r="C29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D29">
         <v>1858</v>
       </c>
       <c r="E29" t="s">
+        <v>659</v>
+      </c>
+      <c r="F29" t="s">
         <v>660</v>
       </c>
-      <c r="F29" t="s">
-        <v>661</v>
-      </c>
       <c r="G29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B30" t="s">
         <v>114</v>
@@ -3085,15 +3085,15 @@
         <v>290</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B31" t="s">
         <v>115</v>
@@ -3108,15 +3108,15 @@
         <v>290</v>
       </c>
       <c r="F31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B32" t="s">
         <v>116</v>
@@ -3131,18 +3131,18 @@
         <v>291</v>
       </c>
       <c r="F32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>548</v>
+      </c>
+      <c r="B33" t="s">
         <v>549</v>
-      </c>
-      <c r="B33" t="s">
-        <v>550</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -3154,15 +3154,15 @@
         <v>291</v>
       </c>
       <c r="F33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B34" t="s">
         <v>117</v>
@@ -3177,15 +3177,15 @@
         <v>291</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B35" t="s">
         <v>118</v>
@@ -3200,18 +3200,18 @@
         <v>292</v>
       </c>
       <c r="F35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>482</v>
+      </c>
+      <c r="B36" t="s">
         <v>483</v>
-      </c>
-      <c r="B36" t="s">
-        <v>484</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -3223,15 +3223,15 @@
         <v>292</v>
       </c>
       <c r="F36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B37" t="s">
         <v>119</v>
@@ -3246,18 +3246,18 @@
         <v>292</v>
       </c>
       <c r="F37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>525</v>
+      </c>
+      <c r="B38" t="s">
         <v>526</v>
-      </c>
-      <c r="B38" t="s">
-        <v>527</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -3269,15 +3269,15 @@
         <v>292</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B39" t="s">
         <v>120</v>
@@ -3292,15 +3292,15 @@
         <v>285</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B40" t="s">
         <v>121</v>
@@ -3315,15 +3315,15 @@
         <v>285</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B41" t="s">
         <v>122</v>
@@ -3338,15 +3338,15 @@
         <v>285</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B42" t="s">
         <v>123</v>
@@ -3361,15 +3361,15 @@
         <v>285</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B43" t="s">
         <v>124</v>
@@ -3384,15 +3384,15 @@
         <v>285</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B44" t="s">
         <v>125</v>
@@ -3407,15 +3407,15 @@
         <v>285</v>
       </c>
       <c r="F44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B45" t="s">
         <v>126</v>
@@ -3430,15 +3430,15 @@
         <v>285</v>
       </c>
       <c r="F45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s">
         <v>127</v>
@@ -3453,15 +3453,15 @@
         <v>293</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B47" t="s">
         <v>128</v>
@@ -3476,15 +3476,15 @@
         <v>294</v>
       </c>
       <c r="F47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B48" t="s">
         <v>134</v>
@@ -3499,15 +3499,15 @@
         <v>295</v>
       </c>
       <c r="F48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B49" t="s">
         <v>129</v>
@@ -3522,15 +3522,15 @@
         <v>295</v>
       </c>
       <c r="F49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B50" t="s">
         <v>130</v>
@@ -3545,15 +3545,15 @@
         <v>295</v>
       </c>
       <c r="F50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G50" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B51" t="s">
         <v>131</v>
@@ -3568,15 +3568,15 @@
         <v>295</v>
       </c>
       <c r="F51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B52" t="s">
         <v>132</v>
@@ -3591,15 +3591,15 @@
         <v>295</v>
       </c>
       <c r="F52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G52" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -3614,18 +3614,18 @@
         <v>295</v>
       </c>
       <c r="F53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>455</v>
+      </c>
+      <c r="B54" t="s">
         <v>456</v>
-      </c>
-      <c r="B54" t="s">
-        <v>457</v>
       </c>
       <c r="C54" t="s">
         <v>22</v>
@@ -3637,18 +3637,18 @@
         <v>296</v>
       </c>
       <c r="F54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B55" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
@@ -3660,15 +3660,15 @@
         <v>296</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B56" t="s">
         <v>135</v>
@@ -3683,15 +3683,15 @@
         <v>296</v>
       </c>
       <c r="F56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s">
         <v>136</v>
@@ -3706,15 +3706,15 @@
         <v>296</v>
       </c>
       <c r="F57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B58" t="s">
         <v>137</v>
@@ -3729,15 +3729,15 @@
         <v>296</v>
       </c>
       <c r="F58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G58" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s">
         <v>138</v>
@@ -3752,15 +3752,15 @@
         <v>293</v>
       </c>
       <c r="F59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s">
         <v>139</v>
@@ -3775,15 +3775,15 @@
         <v>296</v>
       </c>
       <c r="F60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G60" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B61" t="s">
         <v>140</v>
@@ -3798,15 +3798,15 @@
         <v>297</v>
       </c>
       <c r="F61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B62" t="s">
         <v>141</v>
@@ -3821,18 +3821,18 @@
         <v>289</v>
       </c>
       <c r="F62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>471</v>
+      </c>
+      <c r="B63" t="s">
         <v>472</v>
-      </c>
-      <c r="B63" t="s">
-        <v>473</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -3844,15 +3844,15 @@
         <v>298</v>
       </c>
       <c r="F63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G63" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s">
         <v>142</v>
@@ -3867,15 +3867,15 @@
         <v>298</v>
       </c>
       <c r="F64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B65" t="s">
         <v>143</v>
@@ -3890,18 +3890,18 @@
         <v>298</v>
       </c>
       <c r="F65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>450</v>
+      </c>
+      <c r="B66" t="s">
         <v>451</v>
-      </c>
-      <c r="B66" t="s">
-        <v>452</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -3913,15 +3913,15 @@
         <v>298</v>
       </c>
       <c r="F66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s">
         <v>144</v>
@@ -3936,15 +3936,15 @@
         <v>298</v>
       </c>
       <c r="F67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G67" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s">
         <v>146</v>
@@ -3959,15 +3959,15 @@
         <v>299</v>
       </c>
       <c r="F68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B69" t="s">
         <v>145</v>
@@ -3982,18 +3982,18 @@
         <v>299</v>
       </c>
       <c r="F69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>434</v>
+      </c>
+      <c r="B70" t="s">
         <v>435</v>
-      </c>
-      <c r="B70" t="s">
-        <v>436</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -4005,18 +4005,18 @@
         <v>299</v>
       </c>
       <c r="F70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G70" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" t="s">
         <v>462</v>
-      </c>
-      <c r="B71" t="s">
-        <v>463</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -4028,15 +4028,15 @@
         <v>299</v>
       </c>
       <c r="F71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G71" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B72" t="s">
         <v>147</v>
@@ -4051,15 +4051,15 @@
         <v>299</v>
       </c>
       <c r="F72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B73" t="s">
         <v>148</v>
@@ -4074,15 +4074,15 @@
         <v>299</v>
       </c>
       <c r="F73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s">
         <v>149</v>
@@ -4097,15 +4097,15 @@
         <v>299</v>
       </c>
       <c r="F74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G74" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B75" t="s">
         <v>150</v>
@@ -4120,15 +4120,15 @@
         <v>299</v>
       </c>
       <c r="F75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s">
         <v>151</v>
@@ -4143,18 +4143,18 @@
         <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>459</v>
+      </c>
+      <c r="B77" t="s">
         <v>460</v>
-      </c>
-      <c r="B77" t="s">
-        <v>461</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -4166,15 +4166,15 @@
         <v>300</v>
       </c>
       <c r="F77" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G77" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s">
         <v>152</v>
@@ -4189,15 +4189,15 @@
         <v>300</v>
       </c>
       <c r="F78" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G78" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B79" t="s">
         <v>153</v>
@@ -4212,15 +4212,15 @@
         <v>300</v>
       </c>
       <c r="F79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s">
         <v>154</v>
@@ -4235,15 +4235,15 @@
         <v>301</v>
       </c>
       <c r="F80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B81" t="s">
         <v>155</v>
@@ -4258,15 +4258,15 @@
         <v>265</v>
       </c>
       <c r="F81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G81" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B82" t="s">
         <v>156</v>
@@ -4281,21 +4281,21 @@
         <v>302</v>
       </c>
       <c r="F82" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G82" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>509</v>
+      </c>
+      <c r="B83" t="s">
         <v>510</v>
       </c>
-      <c r="B83" t="s">
-        <v>511</v>
-      </c>
       <c r="C83" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D83">
         <v>1909</v>
@@ -4304,21 +4304,21 @@
         <v>285</v>
       </c>
       <c r="F83" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>521</v>
+      </c>
+      <c r="B84" t="s">
         <v>522</v>
       </c>
-      <c r="B84" t="s">
-        <v>523</v>
-      </c>
       <c r="C84" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D84">
         <v>1910</v>
@@ -4327,15 +4327,15 @@
         <v>285</v>
       </c>
       <c r="F84" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G84" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B85" t="s">
         <v>157</v>
@@ -4350,15 +4350,15 @@
         <v>303</v>
       </c>
       <c r="F85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s">
         <v>158</v>
@@ -4373,15 +4373,15 @@
         <v>303</v>
       </c>
       <c r="F86" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G86" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B87" t="s">
         <v>159</v>
@@ -4396,15 +4396,15 @@
         <v>284</v>
       </c>
       <c r="F87" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s">
         <v>160</v>
@@ -4419,15 +4419,15 @@
         <v>284</v>
       </c>
       <c r="F88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G88" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B89" t="s">
         <v>161</v>
@@ -4442,18 +4442,18 @@
         <v>304</v>
       </c>
       <c r="F89" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>512</v>
+      </c>
+      <c r="B90" t="s">
         <v>513</v>
-      </c>
-      <c r="B90" t="s">
-        <v>514</v>
       </c>
       <c r="C90" t="s">
         <v>35</v>
@@ -4465,15 +4465,15 @@
         <v>304</v>
       </c>
       <c r="F90" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G90" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B91" t="s">
         <v>162</v>
@@ -4488,15 +4488,15 @@
         <v>304</v>
       </c>
       <c r="F91" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B92" t="s">
         <v>163</v>
@@ -4511,15 +4511,15 @@
         <v>304</v>
       </c>
       <c r="F92" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B93" t="s">
         <v>164</v>
@@ -4534,15 +4534,15 @@
         <v>304</v>
       </c>
       <c r="F93" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B94" t="s">
         <v>165</v>
@@ -4557,15 +4557,15 @@
         <v>304</v>
       </c>
       <c r="F94" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G94" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B95" t="s">
         <v>166</v>
@@ -4580,15 +4580,15 @@
         <v>304</v>
       </c>
       <c r="F95" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G95" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B96" t="s">
         <v>167</v>
@@ -4603,15 +4603,15 @@
         <v>304</v>
       </c>
       <c r="F96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G96" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B97" t="s">
         <v>168</v>
@@ -4626,15 +4626,15 @@
         <v>304</v>
       </c>
       <c r="F97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G97" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B98" t="s">
         <v>169</v>
@@ -4649,15 +4649,15 @@
         <v>304</v>
       </c>
       <c r="F98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G98" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B99" t="s">
         <v>170</v>
@@ -4672,15 +4672,15 @@
         <v>305</v>
       </c>
       <c r="F99" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G99" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B100" t="s">
         <v>171</v>
@@ -4695,15 +4695,15 @@
         <v>305</v>
       </c>
       <c r="F100" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B101" t="s">
         <v>172</v>
@@ -4718,15 +4718,15 @@
         <v>305</v>
       </c>
       <c r="F101" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G101" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B102" t="s">
         <v>173</v>
@@ -4741,15 +4741,15 @@
         <v>306</v>
       </c>
       <c r="F102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G102" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B103" t="s">
         <v>174</v>
@@ -4764,15 +4764,15 @@
         <v>307</v>
       </c>
       <c r="F103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G103" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B104" t="s">
         <v>175</v>
@@ -4787,15 +4787,15 @@
         <v>283</v>
       </c>
       <c r="F104" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G104" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B105" t="s">
         <v>176</v>
@@ -4810,15 +4810,15 @@
         <v>283</v>
       </c>
       <c r="F105" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G105" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B106" t="s">
         <v>177</v>
@@ -4833,15 +4833,15 @@
         <v>283</v>
       </c>
       <c r="F106" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G106" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B107" t="s">
         <v>178</v>
@@ -4856,15 +4856,15 @@
         <v>308</v>
       </c>
       <c r="F107" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G107" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B108" t="s">
         <v>179</v>
@@ -4879,15 +4879,15 @@
         <v>309</v>
       </c>
       <c r="F108" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B109" t="s">
         <v>180</v>
@@ -4902,15 +4902,15 @@
         <v>309</v>
       </c>
       <c r="F109" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G109" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B110" t="s">
         <v>181</v>
@@ -4925,15 +4925,15 @@
         <v>309</v>
       </c>
       <c r="F110" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G110" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B111" t="s">
         <v>182</v>
@@ -4948,15 +4948,15 @@
         <v>310</v>
       </c>
       <c r="F111" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G111" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B112" t="s">
         <v>183</v>
@@ -4971,15 +4971,15 @@
         <v>310</v>
       </c>
       <c r="F112" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G112" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B113" t="s">
         <v>184</v>
@@ -4994,15 +4994,15 @@
         <v>289</v>
       </c>
       <c r="F113" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G113" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B114" t="s">
         <v>185</v>
@@ -5017,15 +5017,15 @@
         <v>289</v>
       </c>
       <c r="F114" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G114" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B115" t="s">
         <v>186</v>
@@ -5037,18 +5037,18 @@
         <v>1840</v>
       </c>
       <c r="E115" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F115" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G115" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B116" t="s">
         <v>187</v>
@@ -5060,18 +5060,18 @@
         <v>1844</v>
       </c>
       <c r="E116" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G116" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B117" t="s">
         <v>188</v>
@@ -5086,15 +5086,15 @@
         <v>312</v>
       </c>
       <c r="F117" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B118" t="s">
         <v>189</v>
@@ -5109,15 +5109,15 @@
         <v>312</v>
       </c>
       <c r="F118" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G118" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B119" t="s">
         <v>190</v>
@@ -5132,15 +5132,15 @@
         <v>313</v>
       </c>
       <c r="F119" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G119" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B120" t="s">
         <v>191</v>
@@ -5155,15 +5155,15 @@
         <v>313</v>
       </c>
       <c r="F120" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G120" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B121" t="s">
         <v>192</v>
@@ -5178,15 +5178,15 @@
         <v>313</v>
       </c>
       <c r="F121" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G121" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B122" t="s">
         <v>193</v>
@@ -5201,15 +5201,15 @@
         <v>305</v>
       </c>
       <c r="F122" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G122" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B123" t="s">
         <v>194</v>
@@ -5224,15 +5224,15 @@
         <v>299</v>
       </c>
       <c r="F123" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G123" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B124" t="s">
         <v>195</v>
@@ -5247,15 +5247,15 @@
         <v>314</v>
       </c>
       <c r="F124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G124" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B125" t="s">
         <v>196</v>
@@ -5270,15 +5270,15 @@
         <v>290</v>
       </c>
       <c r="F125" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G125" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B126" t="s">
         <v>197</v>
@@ -5293,15 +5293,15 @@
         <v>315</v>
       </c>
       <c r="F126" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G126" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B127" t="s">
         <v>198</v>
@@ -5316,15 +5316,15 @@
         <v>316</v>
       </c>
       <c r="F127" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G127" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B128" t="s">
         <v>199</v>
@@ -5339,15 +5339,15 @@
         <v>316</v>
       </c>
       <c r="F128" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G128" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B129" t="s">
         <v>200</v>
@@ -5362,15 +5362,15 @@
         <v>317</v>
       </c>
       <c r="F129" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G129" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B130" t="s">
         <v>201</v>
@@ -5385,15 +5385,15 @@
         <v>305</v>
       </c>
       <c r="F130" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G130" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B131" t="s">
         <v>202</v>
@@ -5408,15 +5408,15 @@
         <v>301</v>
       </c>
       <c r="F131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G131" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B132" t="s">
         <v>203</v>
@@ -5431,15 +5431,15 @@
         <v>318</v>
       </c>
       <c r="F132" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G132" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B133" t="s">
         <v>204</v>
@@ -5454,15 +5454,15 @@
         <v>318</v>
       </c>
       <c r="F133" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G133" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B134" t="s">
         <v>205</v>
@@ -5477,15 +5477,15 @@
         <v>318</v>
       </c>
       <c r="F134" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G134" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B135" t="s">
         <v>206</v>
@@ -5500,15 +5500,15 @@
         <v>307</v>
       </c>
       <c r="F135" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G135" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B136" t="s">
         <v>207</v>
@@ -5523,15 +5523,15 @@
         <v>307</v>
       </c>
       <c r="F136" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G136" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B137" t="s">
         <v>208</v>
@@ -5546,15 +5546,15 @@
         <v>307</v>
       </c>
       <c r="F137" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G137" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B138" t="s">
         <v>209</v>
@@ -5569,15 +5569,15 @@
         <v>305</v>
       </c>
       <c r="F138" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G138" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B139" t="s">
         <v>210</v>
@@ -5592,15 +5592,15 @@
         <v>319</v>
       </c>
       <c r="F139" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G139" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B140" t="s">
         <v>211</v>
@@ -5615,15 +5615,15 @@
         <v>319</v>
       </c>
       <c r="F140" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G140" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B141" t="s">
         <v>212</v>
@@ -5638,15 +5638,15 @@
         <v>319</v>
       </c>
       <c r="F141" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G141" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B142" t="s">
         <v>213</v>
@@ -5661,15 +5661,15 @@
         <v>319</v>
       </c>
       <c r="F142" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G142" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B143" t="s">
         <v>214</v>
@@ -5684,15 +5684,15 @@
         <v>319</v>
       </c>
       <c r="F143" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G143" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B144" t="s">
         <v>216</v>
@@ -5707,15 +5707,15 @@
         <v>319</v>
       </c>
       <c r="F144" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G144" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B145" t="s">
         <v>215</v>
@@ -5730,15 +5730,15 @@
         <v>319</v>
       </c>
       <c r="F145" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G145" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B146" t="s">
         <v>217</v>
@@ -5753,15 +5753,15 @@
         <v>319</v>
       </c>
       <c r="F146" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B147" t="s">
         <v>218</v>
@@ -5776,15 +5776,15 @@
         <v>319</v>
       </c>
       <c r="F147" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G147" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B148" t="s">
         <v>219</v>
@@ -5799,15 +5799,15 @@
         <v>312</v>
       </c>
       <c r="F148" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G148" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B149" t="s">
         <v>220</v>
@@ -5822,15 +5822,15 @@
         <v>312</v>
       </c>
       <c r="F149" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G149" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B150" t="s">
         <v>221</v>
@@ -5845,15 +5845,15 @@
         <v>312</v>
       </c>
       <c r="F150" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G150" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B151" t="s">
         <v>222</v>
@@ -5868,15 +5868,15 @@
         <v>320</v>
       </c>
       <c r="F151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G151" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B152" t="s">
         <v>223</v>
@@ -5891,15 +5891,15 @@
         <v>320</v>
       </c>
       <c r="F152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G152" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B153" t="s">
         <v>224</v>
@@ -5914,15 +5914,15 @@
         <v>320</v>
       </c>
       <c r="F153" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G153" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B154" t="s">
         <v>225</v>
@@ -5937,15 +5937,15 @@
         <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B155" t="s">
         <v>226</v>
@@ -5960,15 +5960,15 @@
         <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G155" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B156" t="s">
         <v>227</v>
@@ -5983,15 +5983,15 @@
         <v>321</v>
       </c>
       <c r="F156" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G156" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B157" t="s">
         <v>228</v>
@@ -6006,15 +6006,15 @@
         <v>314</v>
       </c>
       <c r="F157" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G157" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B158" t="s">
         <v>229</v>
@@ -6029,15 +6029,15 @@
         <v>290</v>
       </c>
       <c r="F158" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G158" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B159" t="s">
         <v>230</v>
@@ -6049,18 +6049,18 @@
         <v>1903</v>
       </c>
       <c r="E159" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F159" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G159" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B160" t="s">
         <v>231</v>
@@ -6075,15 +6075,15 @@
         <v>283</v>
       </c>
       <c r="F160" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G160" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B161" t="s">
         <v>232</v>
@@ -6098,15 +6098,15 @@
         <v>283</v>
       </c>
       <c r="F161" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G161" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B162" t="s">
         <v>233</v>
@@ -6118,18 +6118,18 @@
         <v>1907</v>
       </c>
       <c r="E162" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F162" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G162" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B163" t="s">
         <v>234</v>
@@ -6141,18 +6141,18 @@
         <v>1911</v>
       </c>
       <c r="E163" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F163" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G163" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B164" t="s">
         <v>235</v>
@@ -6167,15 +6167,15 @@
         <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G164" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B165" t="s">
         <v>236</v>
@@ -6190,15 +6190,15 @@
         <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G165" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B166" t="s">
         <v>237</v>
@@ -6213,15 +6213,15 @@
         <v>305</v>
       </c>
       <c r="F166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G166" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B167" t="s">
         <v>238</v>
@@ -6236,15 +6236,15 @@
         <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G167" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B168" t="s">
         <v>239</v>
@@ -6259,15 +6259,15 @@
         <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B169" t="s">
         <v>240</v>
@@ -6282,15 +6282,15 @@
         <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G169" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B170" t="s">
         <v>241</v>
@@ -6305,15 +6305,15 @@
         <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G170" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B171" t="s">
         <v>242</v>
@@ -6328,15 +6328,15 @@
         <v>314</v>
       </c>
       <c r="F171" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G171" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B172" t="s">
         <v>243</v>
@@ -6351,15 +6351,15 @@
         <v>314</v>
       </c>
       <c r="F172" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G172" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B173" t="s">
         <v>244</v>
@@ -6374,15 +6374,15 @@
         <v>314</v>
       </c>
       <c r="F173" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G173" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B174" t="s">
         <v>245</v>
@@ -6397,15 +6397,15 @@
         <v>320</v>
       </c>
       <c r="F174" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G174" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B175" t="s">
         <v>246</v>
@@ -6417,18 +6417,18 @@
         <v>1905</v>
       </c>
       <c r="E175" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F175" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G175" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B176" t="s">
         <v>247</v>
@@ -6443,15 +6443,15 @@
         <v>325</v>
       </c>
       <c r="F176" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G176" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B177" t="s">
         <v>248</v>
@@ -6469,12 +6469,12 @@
         <v>327</v>
       </c>
       <c r="G177" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B178" t="s">
         <v>249</v>
@@ -6489,15 +6489,15 @@
         <v>326</v>
       </c>
       <c r="F178" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G178" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B179" t="s">
         <v>250</v>
@@ -6512,15 +6512,15 @@
         <v>326</v>
       </c>
       <c r="F179" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G179" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B180" t="s">
         <v>251</v>
@@ -6535,15 +6535,15 @@
         <v>326</v>
       </c>
       <c r="F180" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G180" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B181" t="s">
         <v>252</v>
@@ -6558,15 +6558,15 @@
         <v>326</v>
       </c>
       <c r="F181" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G181" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B182" t="s">
         <v>253</v>
@@ -6581,15 +6581,15 @@
         <v>326</v>
       </c>
       <c r="F182" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G182" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B183" t="s">
         <v>254</v>
@@ -6604,15 +6604,15 @@
         <v>326</v>
       </c>
       <c r="F183" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G183" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B184" t="s">
         <v>255</v>
@@ -6627,15 +6627,15 @@
         <v>326</v>
       </c>
       <c r="F184" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G184" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B185" t="s">
         <v>256</v>
@@ -6647,18 +6647,18 @@
         <v>1903</v>
       </c>
       <c r="E185" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F185" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G185" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B186" t="s">
         <v>257</v>
@@ -6670,18 +6670,18 @@
         <v>1912</v>
       </c>
       <c r="E186" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G186" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B187" t="s">
         <v>258</v>
@@ -6693,18 +6693,18 @@
         <v>1913</v>
       </c>
       <c r="E187" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F187" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G187" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B188" t="s">
         <v>259</v>
@@ -6716,18 +6716,18 @@
         <v>1910</v>
       </c>
       <c r="E188" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F188" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G188" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B189" t="s">
         <v>260</v>
@@ -6742,15 +6742,15 @@
         <v>327</v>
       </c>
       <c r="F189" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G189" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B190" t="s">
         <v>261</v>
@@ -6765,15 +6765,15 @@
         <v>327</v>
       </c>
       <c r="F190" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G190" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B191" t="s">
         <v>262</v>
@@ -6788,15 +6788,15 @@
         <v>320</v>
       </c>
       <c r="F191" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G191" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B192" t="s">
         <v>263</v>
@@ -6811,15 +6811,15 @@
         <v>294</v>
       </c>
       <c r="F192" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G192" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B193" t="s">
         <v>264</v>
@@ -6834,15 +6834,15 @@
         <v>294</v>
       </c>
       <c r="F193" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G193" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B194" t="s">
         <v>265</v>
@@ -6857,15 +6857,15 @@
         <v>328</v>
       </c>
       <c r="F194" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G194" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B195" t="s">
         <v>266</v>
@@ -6880,15 +6880,15 @@
         <v>321</v>
       </c>
       <c r="F195" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G195" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B196" t="s">
         <v>267</v>
@@ -6903,15 +6903,15 @@
         <v>321</v>
       </c>
       <c r="F196" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G196" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B197" t="s">
         <v>268</v>
@@ -6926,15 +6926,15 @@
         <v>321</v>
       </c>
       <c r="F197" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G197" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B198" t="s">
         <v>270</v>
@@ -6949,15 +6949,15 @@
         <v>329</v>
       </c>
       <c r="F198" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B199" t="s">
         <v>269</v>
@@ -6972,15 +6972,15 @@
         <v>329</v>
       </c>
       <c r="F199" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G199" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B200" t="s">
         <v>271</v>
@@ -6995,15 +6995,15 @@
         <v>329</v>
       </c>
       <c r="F200" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G200" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B201" t="s">
         <v>272</v>
@@ -7018,15 +7018,15 @@
         <v>329</v>
       </c>
       <c r="F201" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G201" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B202" t="s">
         <v>273</v>
@@ -7041,15 +7041,15 @@
         <v>329</v>
       </c>
       <c r="F202" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G202" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B203" t="s">
         <v>274</v>
@@ -7064,15 +7064,15 @@
         <v>305</v>
       </c>
       <c r="F203" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G203" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B204" t="s">
         <v>275</v>
@@ -7087,15 +7087,15 @@
         <v>302</v>
       </c>
       <c r="F204" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G204" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B205" t="s">
         <v>277</v>
@@ -7110,15 +7110,15 @@
         <v>321</v>
       </c>
       <c r="F205" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G205" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B206" t="s">
         <v>276</v>
@@ -7133,15 +7133,15 @@
         <v>321</v>
       </c>
       <c r="F206" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G206" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B207" t="s">
         <v>278</v>
@@ -7156,15 +7156,15 @@
         <v>285</v>
       </c>
       <c r="F207" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G207" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B208" t="s">
         <v>279</v>
@@ -7179,15 +7179,15 @@
         <v>330</v>
       </c>
       <c r="F208" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G208" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B209" t="s">
         <v>280</v>
@@ -7202,15 +7202,15 @@
         <v>331</v>
       </c>
       <c r="F209" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G209" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B210" t="s">
         <v>281</v>
@@ -7222,13 +7222,13 @@
         <v>1845</v>
       </c>
       <c r="E210" t="s">
-        <v>332</v>
+        <v>667</v>
       </c>
       <c r="F210" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G210" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/summer_school_corpus_info_new.xlsx
+++ b/scripts/summer_school_corpus_info_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliagrisot/Documents/GitHub/zurich-sommerschule22.github.io/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5B215F-234F-1E48-9B9A-10E4B0384013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8B8A56-BEC1-9145-9C0F-C647C9BA1C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2386,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B192" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B191" workbookViewId="0">
       <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
